--- a/Demo/Script for execution/Sanity/Default.xlsx
+++ b/Demo/Script for execution/Sanity/Default.xlsx
@@ -478,7 +478,7 @@
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -494,10 +494,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
